--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rdf9eed1b169240a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R5f09e53c58e045bf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R5f09e53c58e045bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R9e2df36a989049a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R9e2df36a989049a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R1cfc6f59f72b4544"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R1cfc6f59f72b4544"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rc33917280f90470a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rc33917280f90470a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R955de3aabe884609"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R955de3aabe884609"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R363139a9cb294424"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R363139a9cb294424"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R49ad6ca4d83545d3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R49ad6ca4d83545d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rc67004d179e04702"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rc67004d179e04702"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rcd9262c7656b4721"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rcd9262c7656b4721"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R7f195038dcec4427"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R7f195038dcec4427"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R8dfa463a24254a74"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R8dfa463a24254a74"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R089ab269a4514773"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/058_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R089ab269a4514773"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R5f62e8fdb517478f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
